--- a/models3/excels2/Resnet50-73.xlsx
+++ b/models3/excels2/Resnet50-73.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\models3\excels2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC35CEE-54DE-4EB5-9C8C-6E645A19020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>dcm_name</t>
   </si>
@@ -46,6 +40,9 @@
     <t>020-ZSSYX-02362-WHME-202309180851-L-D.bmp</t>
   </si>
   <si>
+    <t>0571-ZKYZL-S334-SXYA-202308141339-双波段10-L.bmp</t>
+  </si>
+  <si>
     <t>020-ZSSYX-02109-YSQU-202305250913-R-D.bmp</t>
   </si>
   <si>
@@ -58,12 +55,24 @@
     <t>0571-ZKYZL-S301-LBQI-202307031012-双波段10-L.bmp</t>
   </si>
   <si>
+    <t>020-ZSSYX-01895-ZAPI-202302081010-双波段-L-D.bmp</t>
+  </si>
+  <si>
     <t>020-ZSSYX-02094-ZLDA-202306121101-L-D.bmp</t>
   </si>
   <si>
     <t>ZJSYF00006-YUJI-202110261103-双波段-L.bmp</t>
   </si>
   <si>
+    <t>0571-ZKYZL-S310-NFJU-202307171134-双波段10-R.bmp</t>
+  </si>
+  <si>
+    <t>KE9JEXH1.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-00718-HYFE-202205241110-双波段-R-D.bmp</t>
+  </si>
+  <si>
     <t>020-ZSSYX-01803-LWXI-202210311000-双波段-L-D.bmp</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>0571-ZKYZL-S177-YYYI-202210211452-双波段10-R.bmp</t>
   </si>
   <si>
+    <t>020-ZSSYX-01859-HLJI-202301130934-双波段-R-D.bmp</t>
+  </si>
+  <si>
     <t>0571-ZHJSH-00027-CHXI-202201121658-双波段10-R.bmp</t>
   </si>
   <si>
@@ -106,9 +118,18 @@
     <t>0571-ZKYZL-S238-ZXYI-202302281015-双波段10-L.bmp</t>
   </si>
   <si>
+    <t>0571-ZKYZL-S277-ZMLA-202305221527-双波段10-L.bmp</t>
+  </si>
+  <si>
     <t>020-ZSSYX-01838-CYPI-202301030937-双波段-L-D.bmp</t>
   </si>
   <si>
+    <t>020-ZSSYX-02463-LYLI-202310181604-L-D.bmp</t>
+  </si>
+  <si>
+    <t>0571-ZKYZL-S304-ZXLI-202307031533-双波段10-L.bmp</t>
+  </si>
+  <si>
     <t>020-ZSSYX-02453-SMME-202310161015-R-D.bmp</t>
   </si>
   <si>
@@ -116,6 +137,9 @@
   </si>
   <si>
     <t>020-ZSSYX-02012-LYYA-202307200834-双波段-L-D.bmp</t>
+  </si>
+  <si>
+    <t>020-ZSSYX-01873-JYSO-202301301444-双波段-R-D.bmp</t>
   </si>
   <si>
     <t>ZJSYF00002-CFHU-202110111442-双波段-L.bmp</t>
@@ -370,12 +394,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -383,15 +407,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -437,25 +454,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,7 +502,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -527,7 +536,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -562,10 +570,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -738,16 +745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,12 +766,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.83293545246124268</v>
+        <v>0.8329354524612427</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -775,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -789,12 +794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.5869749952107668E-3</v>
+        <v>0.002586974995210767</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -803,12 +808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>2.93973982334137E-2</v>
+        <v>0.0293973982334137</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -817,96 +822,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.99980729818344116</v>
+        <v>0.7793444395065308</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>8.2593988627195358E-3</v>
+        <v>0.9998072981834412</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.99593436717987061</v>
+        <v>0.008259398862719536</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1.394188497215509E-3</v>
+        <v>0.9959343671798706</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.97987967729568481</v>
+        <v>0.001394188497215509</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>5.3338922560215003E-2</v>
+        <v>0.9272357225418091</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.99939298629760742</v>
+        <v>0.9798796772956848</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -915,12 +920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.17119073867797849</v>
+        <v>0.053338922560215</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -929,82 +934,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>9.3542483227793127E-5</v>
+        <v>0.02687993086874485</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.95892798900604248</v>
+        <v>0.106013260781765</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.99196106195449829</v>
+        <v>0.1817741990089417</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>8.6032440885901451E-3</v>
+        <v>0.9993929862976074</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.99981385469436646</v>
+        <v>0.1711907386779785</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>1.6465101391077042E-2</v>
+        <v>9.354248322779313E-05</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1013,54 +1018,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.35743296146392822</v>
+        <v>0.9589279890060425</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.6900234669446954E-3</v>
+        <v>0.9919610619544983</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>8.7659018390695564E-6</v>
+        <v>0.008603244088590145</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.97583949565887451</v>
+        <v>0.9998138546943665</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1069,26 +1074,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.99020349979400635</v>
+        <v>0.01646510139107704</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
-        <v>3.5567840095609431E-3</v>
+        <v>0.3574329614639282</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1097,54 +1102,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.2552944291383028E-4</v>
+        <v>0.7039234042167664</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.0060066170990467E-3</v>
+        <v>0.006690023466944695</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.99961000680923462</v>
+        <v>8.765901839069556E-06</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.99337995052337646</v>
+        <v>0.9758394956588745</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1153,40 +1158,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
-        <v>1.9230071920901539E-3</v>
+        <v>0.9902034997940063</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
-        <v>5.4627517238259315E-4</v>
+        <v>0.003556784009560943</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.86030739545822144</v>
+        <v>0.9992824196815491</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1195,12 +1200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2045004814863205</v>
+        <v>0.0006255294429138303</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1209,26 +1214,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.32126006484031677</v>
+        <v>0.0008761978824622929</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
-        <v>3.404114861041307E-3</v>
+        <v>0.2030506283044815</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1237,194 +1242,194 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.9955894947052002</v>
+        <v>0.006006006617099047</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.84321033954620361</v>
+        <v>0.9996100068092346</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38">
-        <v>1.816668198443949E-3</v>
+        <v>0.9933799505233765</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.99994933605194092</v>
+        <v>0.9881232380867004</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.98979014158248901</v>
+        <v>0.001923007192090154</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41">
-        <v>9.8667270503938198E-4</v>
+        <v>0.0005462751723825932</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.1712761968374252</v>
+        <v>0.8603073954582214</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.99842298030853271</v>
+        <v>0.2045004814863205</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.92178696393966675</v>
+        <v>0.3212600648403168</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.74073606729507446</v>
+        <v>0.003404114861041307</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46">
-        <v>1.846565306186676E-2</v>
+        <v>0.9955894947052002</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47">
-        <v>3.2336986623704429E-3</v>
+        <v>0.8432103395462036</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.98626607656478882</v>
+        <v>0.001816668198443949</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.70828443765640259</v>
+        <v>0.9999493360519409</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1433,26 +1438,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50">
-        <v>3.4311827272176743E-2</v>
+        <v>0.989790141582489</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51">
-        <v>3.4395568072795868E-3</v>
+        <v>0.000986672705039382</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1461,26 +1466,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.99916684627532959</v>
+        <v>0.1712761968374252</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.93917942047119141</v>
+        <v>0.9984229803085327</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1489,40 +1494,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.47293505072593689</v>
+        <v>0.9217869639396667</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55">
-        <v>1.5790268662385639E-5</v>
+        <v>0.7407360672950745</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.23290975391864779</v>
+        <v>0.01846565306186676</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1531,40 +1536,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.96366935968399048</v>
+        <v>0.003233698662370443</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.24658550322055819</v>
+        <v>0.9862660765647888</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.78965085744857788</v>
+        <v>0.7082844376564026</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1573,68 +1578,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60">
-        <v>2.1489770151674752E-3</v>
+        <v>0.03431182727217674</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61">
-        <v>7.3494434356689453E-2</v>
+        <v>0.003439556807279587</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62">
-        <v>3.1365245580673218E-2</v>
+        <v>0.9991668462753296</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.1511498540639877</v>
+        <v>0.9391794204711914</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64">
-        <v>5.1123520825058222E-4</v>
+        <v>0.4729350507259369</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1643,26 +1648,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.857290118932724E-2</v>
+        <v>1.579026866238564E-05</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.11454121023416521</v>
+        <v>0.2329097539186478</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1671,12 +1676,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.9340551495552063</v>
+        <v>0.9636693596839905</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1685,12 +1690,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68">
-        <v>2.1292171441018581E-3</v>
+        <v>0.2465855032205582</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1699,12 +1704,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.93563681840896606</v>
+        <v>0.7896508574485779</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1713,40 +1718,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.74970453977584839</v>
+        <v>0.002148977015167475</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.82758212089538574</v>
+        <v>0.07349443435668945</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72">
-        <v>7.4385665357112885E-2</v>
+        <v>0.03136524558067322</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1755,12 +1760,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73">
-        <v>5.2458815276622772E-2</v>
+        <v>0.1511498540639877</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1769,68 +1774,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.9852747917175293</v>
+        <v>0.0005112352082505822</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.5806345082819462E-4</v>
+        <v>0.06857290118932724</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.67621815204620361</v>
+        <v>0.1145412102341652</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77">
-        <v>3.7287354469299323E-2</v>
+        <v>0.9340551495552063</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78">
-        <v>2.2737890481948849E-2</v>
+        <v>0.002129217144101858</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1839,12 +1844,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.56218940019607544</v>
+        <v>0.9356368184089661</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1853,12 +1858,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.9877733588218689</v>
+        <v>0.7497045397758484</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1867,40 +1872,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81">
-        <v>7.2668671607971191E-2</v>
+        <v>0.8275821208953857</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.99614018201828003</v>
+        <v>0.07438566535711288</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83">
-        <v>7.0806138217449188E-2</v>
+        <v>0.05245881527662277</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1909,12 +1914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.63440990447998047</v>
+        <v>0.9852747917175293</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1923,40 +1928,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.99878686666488647</v>
+        <v>0.0006580634508281946</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86">
-        <v>1.2309637386351819E-3</v>
+        <v>0.6762181520462036</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.40192851424217219</v>
+        <v>0.03728735446929932</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1965,12 +1970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88">
-        <v>2.4016371462494131E-3</v>
+        <v>0.02273789048194885</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1979,26 +1984,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89">
-        <v>7.9827196896076202E-2</v>
+        <v>0.5621894001960754</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.56192505359649658</v>
+        <v>0.9877733588218689</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2007,26 +2012,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.58086121082305908</v>
+        <v>0.07266867160797119</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.9987940788269043</v>
+        <v>0.99614018201828</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2035,110 +2040,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93">
-        <v>5.373696330934763E-4</v>
+        <v>0.07080613821744919</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.98030072450637817</v>
+        <v>0.6344099044799805</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95">
-        <v>1.0991528630256649E-2</v>
+        <v>0.9987868666648865</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.99115127325057983</v>
+        <v>0.001230963738635182</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97">
-        <v>1.391564030200243E-3</v>
+        <v>0.4019285142421722</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.98359328508377075</v>
+        <v>0.002401637146249413</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.99965536594390869</v>
+        <v>0.0798271968960762</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.98705124855041504</v>
+        <v>0.5619250535964966</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2147,124 +2152,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.17209438979625699</v>
+        <v>0.5808612108230591</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102">
-        <v>1.028762417263351E-4</v>
+        <v>0.9987940788269043</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.90521591901779175</v>
+        <v>0.0005373696330934763</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104">
-        <v>5.0335649575572461E-5</v>
+        <v>0.9803007245063782</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.22059266990982E-5</v>
+        <v>0.01099152863025665</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106">
-        <v>4.3255911441519862E-4</v>
+        <v>0.9911512732505798</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107">
-        <v>3.0527780763804908E-3</v>
+        <v>0.001391564030200243</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108">
-        <v>1.9092878792434931E-3</v>
+        <v>0.9835932850837708</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.99643898010253906</v>
+        <v>0.9996553659439087</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -2273,40 +2278,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.9218401312828064</v>
+        <v>0.987051248550415</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.31553789973258972</v>
+        <v>0.172094389796257</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112">
-        <v>3.4712071646936238E-4</v>
+        <v>0.0001028762417263351</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2315,8 +2320,147 @@
         <v>0</v>
       </c>
     </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>0.9052159190177917</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114">
+        <v>5.033564957557246E-05</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>7.22059266990982E-05</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>0.0004325591144151986</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117">
+        <v>0.003052778076380491</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118">
+        <v>0.001909287879243493</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119">
+        <v>0.9964389801025391</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120">
+        <v>0.9218401312828064</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121">
+        <v>0.3155378997325897</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122">
+        <v>0.0003471207164693624</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>